--- a/2022/iowa/play_type_iowa.xlsx
+++ b/2022/iowa/play_type_iowa.xlsx
@@ -1580,150 +1580,162 @@
     <t>6%</t>
   </si>
   <si>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>13%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>1%</t>
+  </si>
+  <si>
+    <t>4%</t>
+  </si>
+  <si>
+    <t>9%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
+    <t>87%</t>
+  </si>
+  <si>
+    <t>98%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>93%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>18%</t>
+  </si>
+  <si>
+    <t>24%</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>3%</t>
+  </si>
+  <si>
+    <t>2%</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>84%</t>
+  </si>
+  <si>
+    <t>16%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>94%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>31%</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>Below Average</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
     <t>11%</t>
   </si>
   <si>
-    <t>82%</t>
-  </si>
-  <si>
-    <t>85%</t>
-  </si>
-  <si>
-    <t>13%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>Very Good</t>
-  </si>
-  <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>Poor</t>
-  </si>
-  <si>
-    <t>9%</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>1%</t>
-  </si>
-  <si>
-    <t>2%</t>
-  </si>
-  <si>
-    <t>7%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>43%</t>
-  </si>
-  <si>
-    <t>12%</t>
-  </si>
-  <si>
-    <t>74%</t>
-  </si>
-  <si>
-    <t>87%</t>
-  </si>
-  <si>
-    <t>98%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>92%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>93%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>17%</t>
-  </si>
-  <si>
-    <t>23%</t>
-  </si>
-  <si>
-    <t>32%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>3%</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>16%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>66%</t>
-  </si>
-  <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>94%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>91%</t>
-  </si>
-  <si>
-    <t>97%</t>
-  </si>
-  <si>
-    <t>27%</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
     <t>99%</t>
   </si>
   <si>
@@ -1733,9 +1745,6 @@
     <t>28%</t>
   </si>
   <si>
-    <t>Below Average</t>
-  </si>
-  <si>
     <t>79%</t>
   </si>
   <si>
@@ -1745,22 +1754,13 @@
     <t>49%</t>
   </si>
   <si>
-    <t>59%</t>
+    <t>60%</t>
   </si>
   <si>
     <t>75%</t>
   </si>
   <si>
-    <t>90%</t>
-  </si>
-  <si>
     <t>95%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>76%</t>
   </si>
   <si>
     <t>45</t>
@@ -18475,7 +18475,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s">
         <v>522</v>
@@ -20744,7 +20744,7 @@
         <v>33.7</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -20975,7 +20975,7 @@
         <v>60</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>25</v>
@@ -20984,7 +20984,7 @@
         <v>1.19</v>
       </c>
       <c r="G9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
         <v>522</v>
@@ -24023,7 +24023,7 @@
         <v>12.3</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -25239,7 +25239,7 @@
         <v>20.8</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -25248,7 +25248,7 @@
         <v>0.98</v>
       </c>
       <c r="G2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
         <v>522</v>
@@ -25932,7 +25932,7 @@
         <v>57.7</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>19</v>
@@ -26009,7 +26009,7 @@
         <v>70.8</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>18</v>
@@ -26163,7 +26163,7 @@
         <v>55</v>
       </c>
       <c r="D14">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>46</v>
@@ -26317,7 +26317,7 @@
         <v>63.6</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>23</v>
@@ -26917,7 +26917,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>18</v>
@@ -27687,7 +27687,7 @@
         <v>7.9</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -27764,7 +27764,7 @@
         <v>11</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -28749,7 +28749,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>14</v>
@@ -28826,7 +28826,7 @@
         <v>14.8</v>
       </c>
       <c r="D7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -30128,10 +30128,10 @@
         <v>0.769</v>
       </c>
       <c r="G3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="I3">
         <v>6</v>
@@ -30436,7 +30436,7 @@
         <v>0.714</v>
       </c>
       <c r="G7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
         <v>523</v>
@@ -32105,7 +32105,7 @@
         <v>28.2</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>17</v>
@@ -32490,7 +32490,7 @@
         <v>5.2</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -32502,7 +32502,7 @@
         <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="I13">
         <v>7</v>
